--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>988.2314065873412</v>
+        <v>1467.087015725</v>
       </c>
       <c r="R2">
-        <v>988.2314065873412</v>
+        <v>13203.783141525</v>
       </c>
       <c r="S2">
-        <v>0.1302286249962862</v>
+        <v>0.1627460635372403</v>
       </c>
       <c r="T2">
-        <v>0.1302286249962862</v>
+        <v>0.1627460635372404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>3174.1634041903</v>
+        <v>3603.980829586111</v>
       </c>
       <c r="R3">
-        <v>3174.1634041903</v>
+        <v>32435.827466275</v>
       </c>
       <c r="S3">
-        <v>0.4182896160613976</v>
+        <v>0.3997947543615648</v>
       </c>
       <c r="T3">
-        <v>0.4182896160613976</v>
+        <v>0.3997947543615648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>1523.283033399506</v>
+        <v>1847.67505713125</v>
       </c>
       <c r="R4">
-        <v>1523.283033399506</v>
+        <v>16629.07551418125</v>
       </c>
       <c r="S4">
-        <v>0.2007374523795374</v>
+        <v>0.2049652399762101</v>
       </c>
       <c r="T4">
-        <v>0.2007374523795374</v>
+        <v>0.2049652399762102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>224.7153193326521</v>
+        <v>296.2494009234</v>
       </c>
       <c r="R5">
-        <v>224.7153193326521</v>
+        <v>2666.2446083106</v>
       </c>
       <c r="S5">
-        <v>0.02961286886575612</v>
+        <v>0.03286337027645433</v>
       </c>
       <c r="T5">
-        <v>0.02961286886575612</v>
+        <v>0.03286337027645433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>721.7774483102309</v>
+        <v>727.7531259294002</v>
       </c>
       <c r="R6">
-        <v>721.7774483102309</v>
+        <v>6549.778133364601</v>
       </c>
       <c r="S6">
-        <v>0.09511545982065679</v>
+        <v>0.0807306964088982</v>
       </c>
       <c r="T6">
-        <v>0.09511545982065679</v>
+        <v>0.08073069640889821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>346.3814558034163</v>
+        <v>373.10167897965</v>
       </c>
       <c r="R7">
-        <v>346.3814558034163</v>
+        <v>3357.91511081685</v>
       </c>
       <c r="S7">
-        <v>0.04564596957029012</v>
+        <v>0.04138870353444329</v>
       </c>
       <c r="T7">
-        <v>0.04564596957029012</v>
+        <v>0.0413887035344433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>106.004087858699</v>
+        <v>148.162522899916</v>
       </c>
       <c r="R8">
-        <v>106.004087858699</v>
+        <v>1333.462706099244</v>
       </c>
       <c r="S8">
-        <v>0.01396916401746012</v>
+        <v>0.01643588083546056</v>
       </c>
       <c r="T8">
-        <v>0.01396916401746012</v>
+        <v>0.01643588083546057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>340.4812821498985</v>
+        <v>363.9694758872449</v>
       </c>
       <c r="R9">
-        <v>340.4812821498985</v>
+        <v>3275.725282985204</v>
       </c>
       <c r="S9">
-        <v>0.04486844772974232</v>
+        <v>0.04037565516799921</v>
       </c>
       <c r="T9">
-        <v>0.04486844772974232</v>
+        <v>0.04037565516799922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>163.3971835238121</v>
+        <v>186.598473730291</v>
       </c>
       <c r="R10">
-        <v>163.3971835238121</v>
+        <v>1679.386263572619</v>
       </c>
       <c r="S10">
-        <v>0.02153239655887339</v>
+        <v>0.02069963590172923</v>
       </c>
       <c r="T10">
-        <v>0.02153239655887339</v>
+        <v>0.02069963590172924</v>
       </c>
     </row>
   </sheetData>
